--- a/biology/Zoologie/Basileuterus/Basileuterus.xlsx
+++ b/biology/Zoologie/Basileuterus/Basileuterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Basileuterus est un genre d'oiseaux de la famille des Parulidae.
 </t>
@@ -511,12 +523,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la suite d'une étude phylogénique de Lovette et al. (2010), le Congrès ornithologique international (COI) (classification version 2.11, 2012) déplace treize espèces qui composaient ce genre vers le genre Myiothlypis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite d'une étude phylogénique de Lovette et al. (2010), le Congrès ornithologique international (COI) (classification version 2.11, 2012) déplace treize espèces qui composaient ce genre vers le genre Myiothlypis.
 Suivant une étude autre étude phylogénique de Gutiérrez-Pinto et al. (2012), le COI (classification version 4.4, 2014) déplace aussi la Paruline des Santa Marta (alors Basileuterus basilicus) vers le genre Myiothlypis.
-Liste d'espèces
-Selon la classification de référence du Congrès ornithologique international  (version 5.2, 2015)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Basileuterus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basileuterus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 5.2, 2015) :
 Basileuterus lachrymosus – Paruline des rochers
 Basileuterus rufifrons – Paruline à calotte rousse
 Basileuterus melanogenys – Paruline sombre
